--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -14,9 +14,9 @@
     <sheet name="acquisition_instrument_model" r:id="rId8" sheetId="6"/>
     <sheet name="source_storage_duration_unit" r:id="rId9" sheetId="7"/>
     <sheet name="time_since_acquisition_instrume" r:id="rId10" sheetId="8"/>
-    <sheet name="mass_spectrometry_ionization_te" r:id="rId11" sheetId="9"/>
-    <sheet name="mass_analysis_polarity" r:id="rId12" sheetId="10"/>
-    <sheet name="mass_spectrometry_scan_mode" r:id="rId13" sheetId="11"/>
+    <sheet name="ms_ionization_technique" r:id="rId11" sheetId="9"/>
+    <sheet name="ms_scan_mode" r:id="rId12" sheetId="10"/>
+    <sheet name="mass_analysis_polarity" r:id="rId13" sheetId="11"/>
     <sheet name="matrix_deposition_method" r:id="rId14" sheetId="12"/>
     <sheet name="preparation_instrument_vendor" r:id="rId15" sheetId="13"/>
     <sheet name="preparation_instrument_model" r:id="rId16" sheetId="14"/>
@@ -144,35 +144,35 @@
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
+        <t>(Required) MS (mass spectrometry) scan mode refers to the number of steps in the
+separation of fragments.</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The low value of the scanned mass range. (unitless)</t>
+        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The high value of the scanned mass range. (unitless)</t>
+        <t>The low value of the scanned mass-to-charge range, for MS1. (unitless)</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
+      <text>
+        <t>The high value of the scanned mass-to-charge range, for MS1. (unitless)</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) The mass resolving power m/∆m, where ∆m is defined as the full width
 at half-maximum (FWHM) for a given peak with a specified mass-to-charge (m/z).
 (unitless)</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The peak (m/z) used to calculate the resolving power.</t>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="1">
-      <text>
-        <t>(Required) Scan mode refers to the number of steps in the separation of
-fragments.</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
@@ -205,6 +205,13 @@
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
+        <t>(Required) A DOI to a protocols.io protocol describing the software and
+database(s) used to process the raw data. Example:
+https://dx.doi.org/10.17504/protocols.io.bsu5ney6</t>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="1">
+      <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
@@ -215,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="319">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -877,7 +884,7 @@
     <t>data_path</t>
   </si>
   <si>
-    <t>mass_spectrometry_ionization_technique</t>
+    <t>ms_ionization_technique</t>
   </si>
   <si>
     <t>LDI</t>
@@ -922,6 +929,27 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
   </si>
   <si>
+    <t>ms_scan_mode</t>
+  </si>
+  <si>
+    <t>MS3</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
     <t>mass_analysis_polarity</t>
   </si>
   <si>
@@ -955,27 +983,6 @@
     <t>mass_to_charge_resolving_power</t>
   </si>
   <si>
-    <t>mass_spectrometry_scan_mode</t>
-  </si>
-  <si>
-    <t>MS3</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000230</t>
-  </si>
-  <si>
-    <t>MS2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
-  </si>
-  <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
     <t>matrix_deposition_method</t>
   </si>
   <si>
@@ -1144,6 +1151,9 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_64340</t>
   </si>
   <si>
+    <t>analysis_protocol_doi</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1162,7 +1172,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:51:05-07:00</t>
+    <t>2023-10-18T12:04:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1221,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -1237,6 +1247,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1262,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1282,18 +1293,19 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="37.7578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="21.265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="30.8203125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="31.69921875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="21.0546875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="30.70703125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="29.16015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="23.15625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="21.265625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="30.8203125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="31.69921875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="21.0546875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="30.70703125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" style="23" width="24.92578125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" style="24" width="29.08203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" style="25" width="28.48828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" style="26" width="18.109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="20.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1349,16 +1361,16 @@
         <v>242</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s" s="1">
         <v>253</v>
@@ -1375,10 +1387,13 @@
       <c r="Z1" t="s" s="1">
         <v>309</v>
       </c>
+      <c r="AA1" t="s" s="1">
+        <v>310</v>
+      </c>
     </row>
     <row r="2">
-      <c r="Z2" t="s">
-        <v>310</v>
+      <c r="AA2" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1413,14 +1428,13 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'mass_spectrometry_ionization_technique'!$A$1:$A$8</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'mass_analysis_polarity'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
-      <formula1>-3.4028235E38</formula1>
-      <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1434,8 +1448,9 @@
       <formula1>-3.4028235E38</formula1>
       <formula2>3.4028235E38</formula2>
     </dataValidation>
-    <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'mass_spectrometry_scan_mode'!$A$1:$A$3</formula1>
+    <dataValidation type="decimal" operator="between" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
+      <formula1>-3.4028235E38</formula1>
+      <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
@@ -1503,26 +1518,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1862,16 +1877,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
@@ -1879,13 +1894,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="323">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -254,6 +254,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -314,12 +320,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -557,12 +557,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -575,6 +569,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -899,6 +899,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000281</t>
   </si>
   <si>
+    <t>HESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000289</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
@@ -923,6 +929,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000280</t>
   </si>
   <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19363</t>
+  </si>
+  <si>
     <t>MALDI-2</t>
   </si>
   <si>
@@ -1019,6 +1031,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1031,12 +1049,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1172,7 +1184,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-18T12:04:22-07:00</t>
+    <t>2023-10-20T20:00:51-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1355,45 +1367,45 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
       <c r="AA2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1440,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ms_ionization_technique'!$A$1:$A$8</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
@@ -1481,26 +1493,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1518,26 +1530,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1555,42 +1567,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1608,58 +1620,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1685,26 +1697,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
@@ -1725,66 +1737,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1802,58 +1814,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1877,16 +1889,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
@@ -1894,13 +1906,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2891,23 +2903,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>232</v>
@@ -2919,6 +2931,22 @@
       </c>
       <c r="B8" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -35,11 +35,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -1184,7 +1185,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T20:00:51-07:00</t>
+    <t>2023-10-27T18:09:52-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="325">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -249,12 +249,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -357,12 +351,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -381,6 +369,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -627,6 +621,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -681,6 +681,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1185,7 +1191,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:09:52-07:00</t>
+    <t>2023-11-02T15:46:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1335,84 +1341,84 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="AA2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1424,7 +1430,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1494,26 +1500,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1531,26 +1537,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1568,42 +1574,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1627,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1698,106 +1704,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1815,58 +1821,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1890,30 +1896,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2207,14 +2213,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2232,90 +2230,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2333,12 +2331,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2356,114 +2354,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2481,290 +2479,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2782,42 +2796,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2835,26 +2849,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2872,82 +2886,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -1191,7 +1191,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:46:47-07:00</t>
+    <t>2023-11-07T20:07:11-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="321">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -255,18 +255,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -279,22 +279,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -321,12 +315,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -339,6 +327,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -351,18 +345,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -375,10 +357,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -393,10 +375,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -411,12 +393,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -435,18 +435,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1191,7 +1179,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:07:11-08:00</t>
+    <t>2023-11-15T17:14:11-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1341,84 +1329,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="V1" t="s" s="1">
         <v>255</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>256</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>259</v>
-      </c>
       <c r="W1" t="s" s="1">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
       <c r="AA2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1500,26 +1491,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1537,26 +1528,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1574,42 +1565,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1627,58 +1618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1696,114 +1687,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -1821,58 +1812,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1896,30 +1887,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
         <v>319</v>
-      </c>
-      <c r="C1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
         <v>320</v>
-      </c>
-      <c r="C2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D2" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2197,22 +2188,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2230,90 +2205,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2331,12 +2306,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2354,114 +2329,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2479,306 +2454,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2796,42 +2771,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2849,26 +2824,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2886,82 +2861,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -1179,7 +1179,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:14:11-08:00</t>
+    <t>2023-11-24T09:46:55-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="343">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -516,6 +516,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -558,6 +570,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -594,6 +618,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -627,6 +657,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -645,18 +681,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -681,6 +741,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -741,6 +807,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1026,12 +1098,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1179,7 +1245,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:46:55-08:00</t>
+    <t>2024-01-29T14:15:33-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1286,33 +1352,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="23.15625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="14.55859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="21.265625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.8203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="31.69921875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="21.0546875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="30.70703125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="24.92578125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="18.109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="20.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="19.97265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="12.55859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="26.5859375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="27.34375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="18.1640625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.48828125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="21.50390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="15.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1338,72 +1404,72 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="AA2" t="s">
-        <v>313</v>
+      <c r="AA2" t="s" s="28">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1484,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1435,7 +1501,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
@@ -1490,27 +1556,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" t="s">
-        <v>239</v>
+      <c r="A1" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
+      <c r="A2" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
+      <c r="A3" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1527,27 +1593,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>246</v>
+      <c r="A1" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
+      <c r="A2" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>272</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
+      <c r="A3" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -1564,43 +1630,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" t="s">
-        <v>257</v>
+      <c r="A1" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>281</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
+      <c r="A2" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>283</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" t="s">
-        <v>261</v>
+      <c r="A3" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>285</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
+      <c r="A4" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>265</v>
+      <c r="A5" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1617,59 +1683,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" t="s">
-        <v>268</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
+      <c r="A3" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>283</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>270</v>
+      <c r="A4" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>292</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
+      <c r="A5" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
+      <c r="A6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>274</v>
+      <c r="A7" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1686,115 +1752,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
+      <c r="A1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
+      <c r="A2" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>283</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>277</v>
+      <c r="A3" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
+      <c r="A4" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
+      <c r="A5" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
+      <c r="A6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" t="s">
-        <v>281</v>
+      <c r="A7" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>283</v>
+      <c r="A8" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>285</v>
+      <c r="A9" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" t="s">
-        <v>287</v>
+      <c r="A10" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" t="s">
-        <v>289</v>
+      <c r="A11" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>311</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" t="s">
-        <v>291</v>
+      <c r="A12" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>313</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" t="s">
-        <v>293</v>
+      <c r="A13" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>315</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" t="s">
-        <v>295</v>
+      <c r="A14" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1811,59 +1877,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" t="s">
-        <v>298</v>
+      <c r="A1" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" t="s">
-        <v>300</v>
+      <c r="A2" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>322</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>302</v>
+      <c r="A3" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>324</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" t="s">
-        <v>304</v>
+      <c r="A4" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>326</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" t="s">
-        <v>306</v>
+      <c r="A5" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>328</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" t="s">
-        <v>308</v>
+      <c r="A6" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>330</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
+      <c r="A7" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -1879,38 +1945,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D1" t="s">
-        <v>319</v>
+      <c r="A1" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
-        <v>320</v>
+      <c r="B2" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1927,266 +1993,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -2204,90 +2270,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -2305,12 +2371,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2321,122 +2387,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2446,314 +2552,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2770,43 +2932,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2823,27 +2985,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2860,83 +3022,83 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
+      <c r="A4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
+      <c r="A5" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>229</v>
+      <c r="B6" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
+      <c r="B7" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
+      <c r="A8" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
+      <c r="A9" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
+      <c r="A10" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="375">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -333,6 +333,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -438,6 +444,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -558,6 +570,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -570,6 +588,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -612,6 +636,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -651,16 +681,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -669,52 +825,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -729,18 +867,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -771,12 +909,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -789,40 +921,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -831,18 +939,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -855,36 +951,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1098,6 +1164,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1161,12 +1233,30 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1224,6 +1314,12 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_64340</t>
   </si>
   <si>
+    <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C481008</t>
+  </si>
+  <si>
     <t>analysis_protocol_doi</t>
   </si>
   <si>
@@ -1245,7 +1341,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:15:33-08:00</t>
+    <t>2024-04-01T14:50:43-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1395,73 +1491,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>334</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
@@ -1469,25 +1565,25 @@
         <v>28</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1532,13 +1628,13 @@
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_matrix'!$A$1:$A$7</formula1>
+      <formula1>'preparation_matrix'!$A$1:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1557,26 +1653,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1594,26 +1690,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1631,42 +1727,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1684,58 +1780,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>292</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>296</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1753,114 +1865,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>303</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>317</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1878,58 +2022,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>332</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1953,16 +2105,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
@@ -1970,13 +2122,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>342</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2256,6 +2408,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2263,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,90 +2431,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2372,12 +2540,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2395,154 +2563,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2744,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2560,362 +2752,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2933,42 +3173,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2986,26 +3226,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3023,50 +3263,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -3074,31 +3314,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="385">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -285,6 +285,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -381,6 +387,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -462,22 +474,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -504,27 +546,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -573,7 +603,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -681,6 +711,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1077,6 +1113,12 @@
     <t>ms_scan_mode</t>
   </si>
   <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
+  </si>
+  <si>
     <t>MS3</t>
   </si>
   <si>
@@ -1089,12 +1131,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000229</t>
   </si>
   <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000228</t>
-  </si>
-  <si>
     <t>mass_analysis_polarity</t>
   </si>
   <si>
@@ -1104,18 +1140,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000276</t>
   </si>
   <si>
+    <t>Positive ion mode</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
+  </si>
+  <si>
     <t>Negative and positive ion mode</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000278</t>
   </si>
   <si>
-    <t>Positive ion mode</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000277</t>
-  </si>
-  <si>
     <t>mass_to_charge_range_low_value</t>
   </si>
   <si>
@@ -1137,10 +1173,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000240</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+    <t>Sublimation</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000242</t>
   </si>
   <si>
     <t>Robotic spotting</t>
@@ -1155,12 +1191,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000241</t>
   </si>
   <si>
-    <t>Sublimation</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000242</t>
-  </si>
-  <si>
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
@@ -1341,7 +1371,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:50:43-07:00</t>
+    <t>2024-08-03T11:44:30-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1491,90 +1521,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1583,7 +1613,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1653,26 +1683,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1690,26 +1720,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1727,42 +1757,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1780,74 +1810,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1865,146 +1895,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2022,66 +2052,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2105,30 +2135,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2416,6 +2446,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2423,7 +2469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2431,98 +2477,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2540,12 +2610,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2563,178 +2633,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2752,410 +2822,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3173,42 +3251,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3226,26 +3304,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3263,50 +3341,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
@@ -3314,31 +3392,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="391">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -363,6 +363,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -387,6 +393,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -462,18 +474,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -486,13 +498,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -528,24 +546,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -648,6 +666,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1206,12 +1230,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1371,7 +1389,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:44:30-07:00</t>
+    <t>2025-01-08T12:45:17-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1521,73 +1539,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
@@ -1595,22 +1613,22 @@
         <v>30</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1683,26 +1701,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1720,26 +1738,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1757,42 +1775,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -1810,74 +1828,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>328</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1895,146 +1913,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2052,66 +2070,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2135,16 +2153,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
@@ -2152,13 +2170,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2462,6 +2480,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2469,7 +2503,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2477,122 +2511,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2610,12 +2652,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2667,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2633,178 +2675,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2822,418 +2872,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3251,42 +3301,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3304,26 +3354,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3341,42 +3391,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -3384,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -3392,31 +3442,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -56,11 +56,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -109,8 +109,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="429">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -309,10 +309,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -411,6 +411,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -465,6 +471,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -576,40 +594,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -618,12 +702,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -636,18 +714,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -672,48 +738,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -765,6 +801,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -783,12 +825,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -801,12 +861,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -819,12 +891,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -849,6 +939,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -891,6 +987,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -969,6 +1071,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1011,6 +1119,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1389,7 +1503,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:45:17-08:00</t>
+    <t>2025-04-24T10:50:36-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1539,73 +1653,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>382</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -1613,13 +1727,13 @@
         <v>30</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>383</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1628,10 +1742,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1701,26 +1815,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1738,26 +1852,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1775,42 +1889,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -1828,74 +1942,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -1913,146 +2027,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>339</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>355</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2070,66 +2184,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2153,16 +2267,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -2170,13 +2284,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2494,6 +2608,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2511,130 +2649,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2652,12 +2790,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2675,186 +2813,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +3026,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2872,418 +3034,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3301,42 +3575,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3354,26 +3628,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3391,42 +3665,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -3434,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -3442,31 +3716,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="433">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -963,6 +963,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1032,7 +1044,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1503,7 +1515,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:50:36-07:00</t>
+    <t>2025-05-12T10:15:57-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1665,61 +1677,61 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -1727,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1757,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1815,26 +1827,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1852,26 +1864,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1901,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
@@ -1905,26 +1917,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -1974,18 +1986,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7">
@@ -2006,10 +2018,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +2039,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -2043,10 +2055,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
@@ -2059,10 +2071,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -2075,98 +2087,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2184,66 +2196,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2267,16 +2279,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
@@ -2284,13 +2296,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3482,26 +3494,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3558,6 +3570,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3575,42 +3603,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3628,26 +3656,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3665,42 +3693,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -3708,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
@@ -3716,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -35,106 +35,112 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
@@ -213,8 +219,8 @@
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -223,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="478">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -249,34 +255,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -285,36 +429,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -345,16 +459,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -363,24 +471,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -411,18 +507,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -435,12 +519,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -453,34 +531,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -618,6 +678,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -732,12 +804,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -771,6 +855,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -879,6 +969,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -957,6 +1053,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -993,6 +1095,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1083,6 +1191,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1107,6 +1218,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1119,6 +1242,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1143,6 +1272,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1260,6 +1395,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000279</t>
   </si>
   <si>
+    <t>nESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000456</t>
+  </si>
+  <si>
     <t>ms_scan_mode</t>
   </si>
   <si>
@@ -1515,7 +1656,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:15:57-07:00</t>
+    <t>2025-10-20T10:53:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1665,87 +1806,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>424</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>425</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1754,10 +1895,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1774,7 +1915,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'ms_ionization_technique'!$A$1:$A$10</formula1>
+      <formula1>'ms_ionization_technique'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'ms_scan_mode'!$A$1:$A$3</formula1>
@@ -1827,26 +1968,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>349</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -1864,26 +2005,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1901,42 +2042,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>369</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -1954,74 +2095,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>376</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>378</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2039,146 +2180,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>405</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2196,66 +2337,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>422</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2279,30 +2420,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>431</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2644,6 +2785,78 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2661,130 +2874,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2802,12 +3015,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +3030,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2825,210 +3038,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3046,546 +3291,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3603,42 +3920,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3656,26 +3973,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +4002,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3693,50 +4010,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
@@ -3744,31 +4061,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>344</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -145,24 +145,27 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) The ionization approach (i.e., sample probing method) for performing
-imaging mass spectrometry.</t>
+        <t>(Required) The ionization technique used in imaging mass spectrometry, which
+refers to the method employed to probe the sample. Example: MALDI</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) MS (mass spectrometry) scan mode refers to the number of steps in the
-separation of fragments.</t>
+        <t>(Required) The mode of mass spectrometry (MS) scanning, which refers to the
+number of steps involved in the separation of fragments during the analysis.
+Example: MS1</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The polarity of the mass analysis (positive or negative ion modes).</t>
+        <t>(Required) The polarity mode used in mass analysis, indicating whether positive
+or negative ion modes are employed. Example: Positive ion mode</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The low value of the scanned mass-to-charge range, for MS1. (unitless)</t>
+        <t>The low value of the scanned mass-to-charge range for MS1. This value is
+unitless. Example: 100</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -172,42 +175,47 @@
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) The mass resolving power m/∆m, where ∆m is defined as the full width
-at half-maximum (FWHM) for a given peak with a specified mass-to-charge (m/z).
-(unitless)</t>
+        <t>(Required) The mass resolving power, denoted as m/∆m, where ∆m is defined as the
+full width at half-maximum (FWHM) for a given peak with a specified
+mass-to-charge ratio (m/z). This measurement is unitless. Example: 60000</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) The peak (m/z) used to calculate the resolving power.</t>
+        <t>(Required) The peak mass-to-charge ratio (m/z) used to calculate the resolving
+power. Example: 400.2</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>Common methods of depositing matrix for assisting in desorption and ionization
-in imaging mass spectrometry include robotic spotting, electrospray deposition,
-and sublimation.</t>
+        <t>The method used for matrix deposition to aid in desorption and ionization in
+imaging mass spectrometry. Common techniques include robotic spotting,
+electrospray deposition, and sublimation. Example: Robotic spraying</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>The matrix is a compound of crystallized molecules that acts like a buffer
-between the sample and the ionizing probe. It also helps ionize the sample,
-carrying it along the flight tube so it can be detected.</t>
+        <t>The preparation matrix, which is a compound of crystallized molecules that
+functions as a buffer between the sample and the ionizing probe. This matrix
+also aids in ionizing the sample, facilitating its movement along the flight
+tube for detection. Example: DMACA (4-(dimethylamino)cinnamic acid)</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
@@ -1656,7 +1664,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T10:53:33-07:00</t>
+    <t>2025-10-20T15:17:11-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="482">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -305,6 +305,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -560,18 +566,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1526,6 +1532,12 @@
     <t>https://identifiers.org/RRID:SCR_019326</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
@@ -1664,7 +1676,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T15:17:11-07:00</t>
+    <t>2025-11-19T14:42:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1814,87 +1826,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1951,10 +1963,10 @@
       <formula1>'matrix_deposition_method'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_matrix'!$A$1:$A$8</formula1>
@@ -1976,26 +1988,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2013,26 +2025,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2050,42 +2062,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2103,74 +2115,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>422</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>423</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,146 +2216,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>430</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2345,66 +2381,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -2428,30 +2464,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2865,6 +2901,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2882,130 +2926,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3023,12 +3067,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3046,242 +3090,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3299,618 +3343,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3928,42 +3972,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3981,26 +4025,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4018,50 +4062,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
@@ -4069,39 +4113,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="484">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -566,6 +566,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1676,7 +1682,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:42:22-08:00</t>
+    <t>2025-11-20T09:43:24-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1829,70 +1835,70 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2">
@@ -1900,7 +1906,7 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1915,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1988,26 +1994,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2025,26 +2031,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2062,42 +2068,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -2115,90 +2121,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -2216,154 +2222,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2381,66 +2387,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2464,16 +2470,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2">
@@ -2481,13 +2487,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2924,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3050,6 +3056,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3067,12 +3081,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3090,242 +3104,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3343,474 +3357,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3818,143 +3832,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3972,42 +3986,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4025,26 +4039,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4062,42 +4076,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -4105,7 +4119,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -4113,39 +4127,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="498">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -539,6 +539,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
   </si>
   <si>
+    <t>Raman Imaging</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000475</t>
+  </si>
+  <si>
     <t>RNAseq (with probes)</t>
   </si>
   <si>
@@ -551,6 +557,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>STARmap</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000476</t>
+  </si>
+  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -824,6 +836,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Revvity</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027779</t>
+  </si>
+  <si>
     <t>Cytek Biosciences</t>
   </si>
   <si>
@@ -953,6 +971,12 @@
     <t>https://identifiers.org/RRID:SCR_026452</t>
   </si>
   <si>
+    <t>Opera Phenix Plus HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027780</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -995,6 +1019,12 @@
     <t>https://identifiers.org/RRID:SCR_027101</t>
   </si>
   <si>
+    <t>Orbitrap Fusion Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020559</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1121,6 +1151,12 @@
     <t>https://identifiers.org/RRID:SCR_027072</t>
   </si>
   <si>
+    <t>Zeiss LightSheet Z.1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020919</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1262,6 +1298,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>SYNAPT G2-Si</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027782</t>
+  </si>
+  <si>
     <t>Biomark HD</t>
   </si>
   <si>
@@ -1682,7 +1724,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-20T09:43:24-08:00</t>
+    <t>2025-12-15T11:34:38-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1832,73 +1874,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
@@ -1906,13 +1948,13 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="20">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$51</formula1>
+      <formula1>'dataset_type'!$A$1:$A$53</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$17</formula1>
@@ -1921,10 +1963,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$81</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1994,26 +2036,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2031,26 +2073,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2068,42 +2110,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2121,90 +2163,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2222,154 +2264,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2387,66 +2429,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -2470,16 +2512,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
@@ -2487,13 +2529,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2915,6 +2957,22 @@
       </c>
       <c r="B51" t="s" s="0">
         <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2932,138 +2990,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3081,12 +3139,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3154,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3104,242 +3162,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3415,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3357,618 +3423,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>336</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3986,42 +4084,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4039,26 +4137,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4076,42 +4174,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -4119,7 +4217,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
@@ -4127,39 +4225,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/sims/v2.0.0/sims-v2.0.0.xlsx
+++ b/sims/v2.0.0/sims-v2.0.0.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="500">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -776,6 +776,12 @@
     <t>https://identifiers.org/RRID:SCR_023605</t>
   </si>
   <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024589</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
@@ -1724,7 +1730,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-12-15T11:34:38-08:00</t>
+    <t>2025-12-16T09:00:30-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1883,64 +1889,64 @@
         <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
@@ -1948,7 +1954,7 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1969,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$31</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$81</formula1>
@@ -2036,26 +2042,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2073,26 +2079,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2110,42 +2116,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2163,26 +2169,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -2195,34 +2201,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -2243,10 +2249,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2264,154 +2270,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -2429,66 +2435,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -2512,16 +2518,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
@@ -2529,13 +2535,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3160,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3406,6 +3412,14 @@
       </c>
       <c r="B31" t="s" s="0">
         <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3423,498 +3437,498 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63">
@@ -3922,151 +3936,151 @@
         <v>70</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4084,42 +4098,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4137,26 +4151,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4174,42 +4188,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
@@ -4217,7 +4231,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
@@ -4225,39 +4239,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
